--- a/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR04.xlsx
+++ b/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelfi\Downloads\X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Desktop\6 SEMESTRE\CALIDAD DE SW\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5103CFDE-2B34-4131-8EF8-093442E91E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBC3DDF-8974-4866-AD31-B899F36C765B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="CR04" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>CHANGE REQUEST</t>
   </si>
@@ -163,13 +163,38 @@
   </si>
   <si>
     <t>Recomendación</t>
+  </si>
+  <si>
+    <t>1. Implementar un mensaje emergente que aparezca en la pantalla cuando el usuario haga clic en el ícono del micrófono, indicando que la aplicación está lista para escuchar.
+2. Combinar ambas opciones, implementando tanto el mensaje emergente como el indicador visual persistente para asegurar que el usuario esté completamente informado sobre el estado de la entrada de audio.</t>
+  </si>
+  <si>
+    <t>4-6 horas</t>
+  </si>
+  <si>
+    <t>Impacto moderado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrada de audio	</t>
+  </si>
+  <si>
+    <t>Mejora de la interfaz de usuario para indicar el estado de la entrada de audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaz de usuario	</t>
+  </si>
+  <si>
+    <t>Adición de elementos visuales para mejorar la usabilidad</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -552,6 +577,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,6 +597,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>113310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B92069-3D71-56E9-5778-31A89EF72678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="6162675"/>
+          <a:ext cx="6962775" cy="437160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,11 +967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -902,8 +980,8 @@
     <col min="8" max="8" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:8">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -912,7 +990,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75">
+    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -924,22 +1002,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
@@ -952,15 +1030,15 @@
       <c r="G7" s="25"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>6</v>
@@ -973,11 +1051,11 @@
       <c r="G10" s="25"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>8</v>
@@ -990,18 +1068,18 @@
       <c r="G12" s="25"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1">
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="31" t="s">
         <v>11</v>
@@ -1012,7 +1090,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1">
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="34"/>
       <c r="D16" s="35"/>
@@ -1021,7 +1099,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1">
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="34"/>
       <c r="D17" s="35"/>
@@ -1030,7 +1108,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
@@ -1039,11 +1117,11 @@
       <c r="G18" s="39"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="26" t="s">
         <v>12</v>
@@ -1060,7 +1138,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -1077,40 +1155,58 @@
       <c r="G21" s="8"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="10">
+        <v>45510</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="10">
+        <v>45517</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="10">
+        <v>45517</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="8" t="s">
         <v>22</v>
@@ -1121,7 +1217,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>23</v>
@@ -1132,7 +1228,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
         <v>24</v>
@@ -1143,7 +1239,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="8" t="s">
         <v>25</v>
@@ -1154,7 +1250,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
         <v>26</v>
@@ -1165,7 +1261,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
         <v>27</v>
@@ -1176,18 +1272,18 @@
       <c r="G30" s="12"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" t="s">
         <v>28</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="13" t="s">
         <v>29</v>
@@ -1198,7 +1294,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
@@ -1207,7 +1303,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75" thickBot="1">
+    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1233,11 +1329,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33198599-D7F8-440A-9813-85D60D291D95}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
@@ -1246,8 +1342,8 @@
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:8">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1256,7 +1352,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75">
+    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>30</v>
@@ -1264,45 +1360,53 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="19">
+        <v>4</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="47">
+        <v>45517</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="40" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="21" t="s">
         <v>34</v>
@@ -1313,16 +1417,18 @@
       <c r="G9" s="23"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="41"/>
+      <c r="C10" s="48" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="43"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="41"/>
       <c r="D11" s="42"/>
@@ -1331,7 +1437,7 @@
       <c r="G11" s="43"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="41"/>
       <c r="D12" s="42"/>
@@ -1340,7 +1446,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="41"/>
       <c r="D13" s="42"/>
@@ -1349,7 +1455,7 @@
       <c r="G13" s="43"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="44"/>
       <c r="D14" s="45"/>
@@ -1358,18 +1464,18 @@
       <c r="G14" s="46"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
         <v>36</v>
@@ -1382,25 +1488,33 @@
       <c r="G17" s="30"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
       <c r="D20" s="28"/>
@@ -1409,7 +1523,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
       <c r="D21" s="28"/>
@@ -1418,44 +1532,48 @@
       <c r="G21" s="30"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="21" t="s">
         <v>41</v>
@@ -1466,7 +1584,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="41"/>
       <c r="D29" s="42"/>
@@ -1475,7 +1593,7 @@
       <c r="G29" s="43"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="41"/>
       <c r="D30" s="42"/>
@@ -1484,7 +1602,7 @@
       <c r="G30" s="43"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="41"/>
       <c r="D31" s="42"/>
@@ -1493,7 +1611,7 @@
       <c r="G31" s="43"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="41"/>
       <c r="D32" s="42"/>
@@ -1502,7 +1620,7 @@
       <c r="G32" s="43"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="44"/>
       <c r="D33" s="45"/>
@@ -1511,7 +1629,7 @@
       <c r="G33" s="46"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -1533,5 +1651,6 @@
     <mergeCell ref="D21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR04.xlsx
+++ b/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Desktop\6 SEMESTRE\CALIDAD DE SW\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBC3DDF-8974-4866-AD31-B899F36C765B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C26DAA2-7C60-4893-A0F4-619EAD67140A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="CR04" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>CHANGE REQUEST</t>
   </si>
@@ -169,12 +169,6 @@
 2. Combinar ambas opciones, implementando tanto el mensaje emergente como el indicador visual persistente para asegurar que el usuario esté completamente informado sobre el estado de la entrada de audio.</t>
   </si>
   <si>
-    <t>4-6 horas</t>
-  </si>
-  <si>
-    <t>Impacto moderado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entrada de audio	</t>
   </si>
   <si>
@@ -188,6 +182,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>medio</t>
   </si>
 </sst>
 </file>
@@ -512,6 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -561,7 +559,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +567,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,10 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -1022,12 +1019,12 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1043,12 +1040,12 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1060,12 +1057,12 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1081,40 +1078,40 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1123,10 +1120,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="8" t="s">
         <v>13</v>
       </c>
@@ -1195,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="10">
         <v>45517</v>
@@ -1296,11 +1293,11 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1329,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33198599-D7F8-440A-9813-85D60D291D95}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1377,7 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="25">
         <v>45517</v>
       </c>
       <c r="H5" s="7"/>
@@ -1394,12 +1391,12 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1419,49 +1416,49 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -1480,62 +1477,62 @@
       <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1544,7 +1541,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1565,7 +1562,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1586,47 +1583,47 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR04.xlsx
+++ b/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Desktop\6 SEMESTRE\CALIDAD DE SW\CR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Fase III - Construcción y Evolución\1. Solicitudes de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C26DAA2-7C60-4893-A0F4-619EAD67140A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274BBA5-9559-4931-B201-309594FBC2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="1920" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="CR04" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>CHANGE REQUEST</t>
   </si>
@@ -185,13 +183,16 @@
   </si>
   <si>
     <t>medio</t>
+  </si>
+  <si>
+    <t>BrailleTech</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,21 +965,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="7" width="20.09765625" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:8" ht="15">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -987,7 +988,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18.75">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -999,22 +1000,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15">
       <c r="B5" s="4"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="15">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
@@ -1027,15 +1030,15 @@
       <c r="G7" s="26"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15">
       <c r="B9" s="4"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>6</v>
@@ -1048,11 +1051,11 @@
       <c r="G10" s="26"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="15">
       <c r="B11" s="4"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="15">
       <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>8</v>
@@ -1065,18 +1068,18 @@
       <c r="G12" s="26"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="15">
       <c r="B13" s="4"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="15" customHeight="1">
       <c r="B15" s="4"/>
       <c r="C15" s="32" t="s">
         <v>11</v>
@@ -1087,7 +1090,7 @@
       <c r="G15" s="34"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15" customHeight="1">
       <c r="B16" s="4"/>
       <c r="C16" s="35"/>
       <c r="D16" s="36"/>
@@ -1096,7 +1099,7 @@
       <c r="G16" s="37"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="15" customHeight="1">
       <c r="B17" s="4"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -1105,7 +1108,7 @@
       <c r="G17" s="37"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="4"/>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
@@ -1114,11 +1117,11 @@
       <c r="G18" s="40"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="15">
       <c r="B19" s="4"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="4"/>
       <c r="C20" s="27" t="s">
         <v>12</v>
@@ -1135,7 +1138,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="15">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -1152,7 +1155,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="15">
       <c r="B22" s="4"/>
       <c r="C22" s="8" t="s">
         <v>19</v>
@@ -1164,12 +1167,12 @@
         <v>45510</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="15">
       <c r="B23" s="4"/>
       <c r="C23" s="8" t="s">
         <v>20</v>
@@ -1181,12 +1184,12 @@
         <v>45517</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="4"/>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -1198,12 +1201,12 @@
         <v>45517</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="4"/>
       <c r="C25" s="8" t="s">
         <v>22</v>
@@ -1214,7 +1217,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>23</v>
@@ -1225,7 +1228,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
         <v>24</v>
@@ -1236,7 +1239,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="4"/>
       <c r="C28" s="8" t="s">
         <v>25</v>
@@ -1247,7 +1250,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
         <v>26</v>
@@ -1258,7 +1261,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
         <v>27</v>
@@ -1269,18 +1272,18 @@
       <c r="G30" s="12"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="4"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="4"/>
       <c r="C32" t="s">
         <v>28</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="4"/>
       <c r="C33" s="13" t="s">
         <v>29</v>
@@ -1291,7 +1294,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
       <c r="B34" s="4"/>
       <c r="C34" s="29"/>
       <c r="D34" s="30"/>
@@ -1300,7 +1303,7 @@
       <c r="G34" s="31"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="14.4" thickBot="1">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1326,21 +1329,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33198599-D7F8-440A-9813-85D60D291D95}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.8984375" customWidth="1"/>
+    <col min="6" max="6" width="22.09765625" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:8" ht="15">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1349,7 +1352,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="17.399999999999999">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>30</v>
@@ -1362,7 +1365,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>32</v>
@@ -1372,7 +1375,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15">
       <c r="B5" s="4"/>
       <c r="F5" t="s">
         <v>33</v>
@@ -1382,11 +1385,11 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="15">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
@@ -1399,11 +1402,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="4"/>
       <c r="C9" s="21" t="s">
         <v>34</v>
@@ -1414,7 +1417,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="4"/>
       <c r="C10" s="42" t="s">
         <v>42</v>
@@ -1425,7 +1428,7 @@
       <c r="G10" s="44"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="4"/>
       <c r="C11" s="45"/>
       <c r="D11" s="43"/>
@@ -1434,7 +1437,7 @@
       <c r="G11" s="44"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="4"/>
       <c r="C12" s="45"/>
       <c r="D12" s="43"/>
@@ -1443,7 +1446,7 @@
       <c r="G12" s="44"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="4"/>
       <c r="C13" s="45"/>
       <c r="D13" s="43"/>
@@ -1452,7 +1455,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="56.25" customHeight="1">
       <c r="B14" s="4"/>
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
@@ -1461,18 +1464,18 @@
       <c r="G14" s="48"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="15">
       <c r="B15" s="4"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="15">
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
         <v>36</v>
@@ -1485,7 +1488,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="15">
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
         <v>43</v>
@@ -1498,7 +1501,7 @@
       <c r="G18" s="31"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>45</v>
@@ -1511,7 +1514,7 @@
       <c r="G19" s="31"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="15">
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
       <c r="D20" s="29"/>
@@ -1520,7 +1523,7 @@
       <c r="G20" s="31"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="15">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
       <c r="D21" s="29"/>
@@ -1529,13 +1532,13 @@
       <c r="G21" s="31"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="15">
       <c r="B22" s="4"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="15">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>38</v>
@@ -1545,18 +1548,18 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="15">
       <c r="B24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="15">
       <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="15">
       <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>40</v>
@@ -1566,11 +1569,11 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="15">
       <c r="B27" s="4"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="4"/>
       <c r="C28" s="21" t="s">
         <v>41</v>
@@ -1581,7 +1584,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="4"/>
       <c r="C29" s="45"/>
       <c r="D29" s="43"/>
@@ -1590,7 +1593,7 @@
       <c r="G29" s="44"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="4"/>
       <c r="C30" s="45"/>
       <c r="D30" s="43"/>
@@ -1599,7 +1602,7 @@
       <c r="G30" s="44"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="4"/>
       <c r="C31" s="45"/>
       <c r="D31" s="43"/>
@@ -1608,7 +1611,7 @@
       <c r="G31" s="44"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="4"/>
       <c r="C32" s="45"/>
       <c r="D32" s="43"/>
@@ -1617,7 +1620,7 @@
       <c r="G32" s="44"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="4"/>
       <c r="C33" s="46"/>
       <c r="D33" s="47"/>
@@ -1626,7 +1629,7 @@
       <c r="G33" s="48"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
